--- a/biology/Botanique/Roseraie_Aramaki/Roseraie_Aramaki.xlsx
+++ b/biology/Botanique/Roseraie_Aramaki/Roseraie_Aramaki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La roseraie Aramaki (荒牧バラ公園, Aramaki bara-kōen?) est une roseraie située dans la ville d'Itami, dans la préfecture de Hyōgo au Japon.
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La roseraie Aramaki est située dans le nord-ouest d'Itami, à 20 minutes à pied de la gare de Yamamoto sur la ligne Hankyu Takarazuka ou de la gare de Nakayamadera sur la ligne JR Takarazuka, non loin de l'aéroport international d'Osaka.
 </t>
@@ -543,7 +557,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La roseraie a été créée en 1992.
 </t>
@@ -574,7 +590,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans cette roseraie de 1,7 hectare de superficie sont abrités quelque 10 000 plants de rosiers représentant 250 espèces ou variétés venant du monde entier. On y trouve notamment des variétés de rosiers originaires d'Itami, telles que « Amatsu Otome » et « Madam Violet ».
 </t>
